--- a/documents/resource/symbol/awesome_6/target/used-symbols.xlsx
+++ b/documents/resource/symbol/awesome_6/target/used-symbols.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="27795" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -452,15 +452,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +478,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,39 +499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -544,9 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,23 +546,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,187 +598,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,15 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -866,6 +857,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,11 +898,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,148 +909,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,54 +1064,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1469,11 +1469,11 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A2)&amp;" "&amp;C2&amp;" /* "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;" */"</f>
+        <f t="shared" ref="G2:G21" si="0">"#define LVGL_SYMBOL_"&amp;UPPER(A2)&amp;" "&amp;C2&amp;" /* "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;" */"</f>
         <v>#define LVGL_SYMBOL_LOCATION_DOT "\xef\x8f\x85" /* 62405, 0xf3c5, GPS indicator */</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A3)&amp;" "&amp;C3&amp;" /* "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_LOCATION_PIN "\xef\x81\x81" /* 61505, 0xf041, GPS indicator */</v>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A4)&amp;" "&amp;C4&amp;" /* "&amp;D4&amp;", "&amp;E4&amp;", "&amp;F4&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_COMPASS "\xef\x85\x8e" /* 61774, 0xf14e, Compass indicator */</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A5)&amp;" "&amp;C5&amp;" /* "&amp;D5&amp;", "&amp;E5&amp;", "&amp;F5&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BATTERY_EMPTY "\xef\x89\x84" /* 62020, 0xf244, Battery empty */</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A6)&amp;" "&amp;C6&amp;" /* "&amp;D6&amp;", "&amp;E6&amp;", "&amp;F6&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BATTERY_QUARTER "\xef\x89\x83" /* 62019, 0xf243, Battery quarter */</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="G7" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A7)&amp;" "&amp;C7&amp;" /* "&amp;D7&amp;", "&amp;E7&amp;", "&amp;F7&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BATTERY_HALF "\xef\x89\x82" /* 62018, 0xf242, Battery half */</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A8)&amp;" "&amp;C8&amp;" /* "&amp;D8&amp;", "&amp;E8&amp;", "&amp;F8&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BATTERY_THREE_QUARTERS "\xef\x89\x81" /* 62017, 0xf241, Battery three quarter */</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A9)&amp;" "&amp;C9&amp;" /* "&amp;D9&amp;", "&amp;E9&amp;", "&amp;F9&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BATTERY_FULL "\xef\x89\x80" /* 62016, 0xf240, Battery full */</v>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A10)&amp;" "&amp;C10&amp;" /* "&amp;D10&amp;", "&amp;E10&amp;", "&amp;F10&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BOLT "\xef\x83\xa7" /* 61671, 0xf0e7, Charging */</v>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A11)&amp;" "&amp;C11&amp;" /* "&amp;D11&amp;", "&amp;E11&amp;", "&amp;F11&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_PLUG "\xef\x87\xa6" /* 61926, 0xf1e6, Charging */</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A12)&amp;" "&amp;C12&amp;" /* "&amp;D12&amp;", "&amp;E12&amp;", "&amp;F12&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_PLUG_CIRCLE_BOLT "\xee\x95\x9b" /* 58715, 0xe55b, Charging */</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>63</v>
       </c>
       <c r="G13" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A13)&amp;" "&amp;C13&amp;" /* "&amp;D13&amp;", "&amp;E13&amp;", "&amp;F13&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_SD_CARD "\xef\x9f\x82" /* 63426, 0xf7c2, SD card */</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A14)&amp;" "&amp;C14&amp;" /* "&amp;D14&amp;", "&amp;E14&amp;", "&amp;F14&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_SATELLITE_DISH "\xef\x9f\x80" /* 63424, 0xf7c0, GPS indicator */</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A15)&amp;" "&amp;C15&amp;" /* "&amp;D15&amp;", "&amp;E15&amp;", "&amp;F15&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_SATELLITE "\xef\x9e\xbf" /* 63423, 0xf7bf, GPS indicator */</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A16)&amp;" "&amp;C16&amp;" /* "&amp;D16&amp;", "&amp;E16&amp;", "&amp;F16&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BLUETOOTH "\xef\x8a\x93" /* 62099, 0xf293, Bluetooth indicater */</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A17)&amp;" "&amp;C17&amp;" /* "&amp;D17&amp;", "&amp;E17&amp;", "&amp;F17&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_BLUETOOTH_B "\xef\x8a\x94" /* 62100, 0xf294, Bluetooth indicater */</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>85</v>
       </c>
       <c r="G18" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A18)&amp;" "&amp;C18&amp;" /* "&amp;D18&amp;", "&amp;E18&amp;", "&amp;F18&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_LOCK "\xef\x80\xa3" /* 61475, 0xf023, Keys lock */</v>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A19)&amp;" "&amp;C19&amp;" /* "&amp;D19&amp;", "&amp;E19&amp;", "&amp;F19&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_VOLUME_XMARK "\xef\x9a\xa9" /* 63145, 0xf6a9, Volumn mute */</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>90</v>
       </c>
       <c r="G20" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A20)&amp;" "&amp;C20&amp;" /* "&amp;D20&amp;", "&amp;E20&amp;", "&amp;F20&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_VOLUME_OFF "\xef\x80\xa6" /* 61478, 0xf026, Volumn mute */</v>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>99</v>
       </c>
       <c r="G21" t="str">
-        <f>"#define LVGL_SYMBOL_"&amp;UPPER(A21)&amp;" "&amp;C21&amp;" /* "&amp;D21&amp;", "&amp;E21&amp;", "&amp;F21&amp;" */"</f>
+        <f t="shared" si="0"/>
         <v>#define LVGL_SYMBOL_VOLUME_LOW "\xef\x80\xa7" /* 61479, 0xf027, Volumn low */</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>104</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G65" si="0">"#define LVGL_SYMBOL_"&amp;UPPER(A22)&amp;" "&amp;C22&amp;" /* "&amp;D22&amp;", "&amp;E22&amp;", "&amp;F22&amp;" */"</f>
+        <f t="shared" ref="G22:G65" si="1">"#define LVGL_SYMBOL_"&amp;UPPER(A22)&amp;" "&amp;C22&amp;" /* "&amp;D22&amp;", "&amp;E22&amp;", "&amp;F22&amp;" */"</f>
         <v>#define LVGL_SYMBOL_VOLUME_HIGH "\xef\x80\xa8" /* 61480, 0xf028, Volumn high */</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>109</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_USB "\xef\x8a\x87" /* 62087, 0xf287, USB indicator */</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>114</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_HEADPHONES "\xef\x80\xa5" /* 61477, 0xf025, Connect to earphone */</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>119</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_MOBILE "\xef\x8f\x8e" /* 62414, 0xf3ce, Connect to xctrack */</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>119</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_MOBILE_SCREEN_BUTTON "\xef\x8f\x8d" /* 62413, 0xf3cd, Connect to xctrack */</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>128</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_WIFI "\xef\x87\xab" /* 61931, 0xf1eb, Infrared indicator */</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
         <v>133</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#define LVGL_SYMBOL_MICROPHONE "\xef\x84\xb0" /* 61744, 0xf130, Microphone indicator */</v>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2189,7 +2189,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
